--- a/data_year/zb/能源/能源工业分行业投资.xlsx
+++ b/data_year/zb/能源/能源工业分行业投资.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,450 +468,200 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>73.66</v>
+        <v>964.1916</v>
       </c>
       <c r="C2" t="n">
-        <v>211.39</v>
+        <v>3784.6615</v>
       </c>
       <c r="D2" t="n">
-        <v>2744.47</v>
+        <v>12879.367</v>
       </c>
       <c r="E2" t="n">
-        <v>172.55</v>
+        <v>2035.0832</v>
       </c>
       <c r="F2" t="n">
-        <v>789.41</v>
+        <v>2927.9883</v>
       </c>
       <c r="G2" t="n">
-        <v>3991.48</v>
+        <v>21627.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.56</v>
+        <v>1244.4255</v>
       </c>
       <c r="C3" t="n">
-        <v>222.19</v>
+        <v>4907.2605</v>
       </c>
       <c r="D3" t="n">
-        <v>2467.78</v>
+        <v>12847.892</v>
       </c>
       <c r="E3" t="n">
-        <v>241.99</v>
+        <v>2268.4785</v>
       </c>
       <c r="F3" t="n">
-        <v>809.65</v>
+        <v>3021.9589</v>
       </c>
       <c r="G3" t="n">
-        <v>3818.18</v>
+        <v>23045.5899</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.33</v>
+        <v>1604.6667</v>
       </c>
       <c r="C4" t="n">
-        <v>301.19</v>
+        <v>5370.2389</v>
       </c>
       <c r="D4" t="n">
-        <v>2822.82</v>
+        <v>14552.5953</v>
       </c>
       <c r="E4" t="n">
-        <v>235.97</v>
+        <v>2500.4517</v>
       </c>
       <c r="F4" t="n">
-        <v>814.63</v>
+        <v>3076.5136</v>
       </c>
       <c r="G4" t="n">
-        <v>4261.94</v>
+        <v>25499.7995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>151.64</v>
+        <v>2210.2432</v>
       </c>
       <c r="C5" t="n">
-        <v>436.4297</v>
+        <v>5212.5675</v>
       </c>
       <c r="D5" t="n">
-        <v>3803.9029</v>
+        <v>16936.5984</v>
       </c>
       <c r="E5" t="n">
-        <v>322.0402</v>
+        <v>3039.1319</v>
       </c>
       <c r="F5" t="n">
-        <v>945.9899</v>
+        <v>3820.6143</v>
       </c>
       <c r="G5" t="n">
-        <v>5508.3627</v>
+        <v>29008.9121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>209.77</v>
+        <v>2241.5922</v>
       </c>
       <c r="C6" t="n">
-        <v>690.42</v>
+        <v>4684.4669</v>
       </c>
       <c r="D6" t="n">
-        <v>5064.1856</v>
+        <v>19674.0659</v>
       </c>
       <c r="E6" t="n">
-        <v>637.91</v>
+        <v>3208.4923</v>
       </c>
       <c r="F6" t="n">
-        <v>1112.28</v>
+        <v>3947.8658</v>
       </c>
       <c r="G6" t="n">
-        <v>7504.7956</v>
+        <v>31514.8909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>274.6311</v>
+        <v>2331.4898</v>
       </c>
       <c r="C7" t="n">
-        <v>1162.9453</v>
+        <v>4006.6554</v>
       </c>
       <c r="D7" t="n">
-        <v>6777.8284</v>
+        <v>22591.9038</v>
       </c>
       <c r="E7" t="n">
-        <v>801.2924</v>
+        <v>2538.6483</v>
       </c>
       <c r="F7" t="n">
-        <v>1463.5591</v>
+        <v>3424.9259</v>
       </c>
       <c r="G7" t="n">
-        <v>10205.6252</v>
+        <v>32562.1334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>331.4928</v>
+        <v>2134.799</v>
       </c>
       <c r="C8" t="n">
-        <v>1459.0224</v>
+        <v>3037.6841</v>
       </c>
       <c r="D8" t="n">
-        <v>7605.764</v>
+        <v>24772.4757</v>
       </c>
       <c r="E8" t="n">
-        <v>939.2854</v>
+        <v>2696.2344</v>
       </c>
       <c r="F8" t="n">
-        <v>1822.228</v>
+        <v>2330.9704</v>
       </c>
       <c r="G8" t="n">
-        <v>11826.2998</v>
+        <v>32837.3646</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>346.6418</v>
+        <v>2229.782</v>
       </c>
       <c r="C9" t="n">
-        <v>1804.5849</v>
+        <v>2648.3765</v>
       </c>
       <c r="D9" t="n">
-        <v>8253.160599999999</v>
+        <v>24284.9904</v>
       </c>
       <c r="E9" t="n">
-        <v>1415.3806</v>
+        <v>2676.7672</v>
       </c>
       <c r="F9" t="n">
-        <v>2225.4951</v>
+        <v>2648.9285</v>
       </c>
       <c r="G9" t="n">
-        <v>13698.6212</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>420.0207</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2399.2474</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9443.6757</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1827.5052</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2675.0724</v>
-      </c>
-      <c r="G10" t="n">
-        <v>16345.5377</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>650.6521</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3056.9292</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11789.7211</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1839.8163</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2791.482</v>
-      </c>
-      <c r="G11" t="n">
-        <v>19477.9486</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>964.1916</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3784.6615</v>
-      </c>
-      <c r="D12" t="n">
-        <v>12879.367</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2035.0832</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2927.9883</v>
-      </c>
-      <c r="G12" t="n">
-        <v>21627.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1244.4255</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4907.2605</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12847.892</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2268.4785</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3021.9589</v>
-      </c>
-      <c r="G13" t="n">
-        <v>23045.5899</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1604.6667</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5370.2389</v>
-      </c>
-      <c r="D14" t="n">
-        <v>14552.5953</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2500.4517</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3076.5136</v>
-      </c>
-      <c r="G14" t="n">
-        <v>25499.7995</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2210.2432</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5212.5675</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16936.5984</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3039.1319</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3820.6143</v>
-      </c>
-      <c r="G15" t="n">
-        <v>29008.9121</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2241.5922</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4684.4669</v>
-      </c>
-      <c r="D16" t="n">
-        <v>19674.0659</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3208.4923</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3947.8658</v>
-      </c>
-      <c r="G16" t="n">
-        <v>31514.8909</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2331.4898</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4006.6554</v>
-      </c>
-      <c r="D17" t="n">
-        <v>22591.9038</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2538.6483</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3424.9259</v>
-      </c>
-      <c r="G17" t="n">
-        <v>32562.1334</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2134.799</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3037.6841</v>
-      </c>
-      <c r="D18" t="n">
-        <v>24772.4757</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2696.2344</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2330.9704</v>
-      </c>
-      <c r="G18" t="n">
-        <v>32837.3646</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2229.782</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2648.3765</v>
-      </c>
-      <c r="D19" t="n">
-        <v>24284.9904</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2676.7672</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2648.9285</v>
-      </c>
-      <c r="G19" t="n">
         <v>32259.0626</v>
       </c>
     </row>
